--- a/r4-core-70-restored/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-70-restored/StructureDefinition-at-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:08:54+00:00</t>
+    <t>2024-02-17T10:40:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1113,6 +1113,50 @@
   </si>
   <si>
     <t>./GenderCode</t>
+  </si>
+  <si>
+    <t>Practitioner.gender.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Practitioner.gender.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Practitioner.gender.extension:AdministrativeGenderAddition</t>
+  </si>
+  <si>
+    <t>AdministrativeGenderAddition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-gender-administrativeGenderAddition}
+</t>
+  </si>
+  <si>
+    <t>Administrative Gender Addition</t>
+  </si>
+  <si>
+    <t>HL7® Austria FHIR® Core Extension for the administrative gender of a person (Patient, Practitioner, ...). 
+The extension is used to add the missing codes and is applied in case the code for administrative gender itself is set to 'other'.</t>
+  </si>
+  <si>
+    <t>Practitioner.gender.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Practitioner.birthDate</t>
@@ -1589,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1598,9 +1642,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1608,7 +1652,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9550,21 +9594,19 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9612,7 +9654,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>353</v>
+        <v>157</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9624,16 +9666,16 @@
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -9641,10 +9683,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9667,18 +9709,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9714,19 +9754,17 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>361</v>
+        <v>163</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9738,16 +9776,16 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -9755,12 +9793,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9769,7 +9809,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9781,13 +9821,13 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9838,7 +9878,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9847,19 +9887,19 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -9867,10 +9907,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9896,10 +9936,10 @@
         <v>154</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>156</v>
+        <v>365</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9950,7 +9990,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9968,7 +10008,7 @@
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -9979,21 +10019,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10002,21 +10042,21 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10064,28 +10104,28 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>163</v>
+        <v>367</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10093,14 +10133,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>378</v>
+        <v>74</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10113,25 +10153,23 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10180,7 +10218,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10192,16 +10230,16 @@
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>74</v>
@@ -10235,18 +10273,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>143</v>
+        <v>383</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10309,13 +10345,13 @@
         <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>74</v>
@@ -10323,10 +10359,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10334,7 +10370,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>85</v>
@@ -10349,13 +10385,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10382,13 +10418,13 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10406,10 +10442,10 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>387</v>
+        <v>157</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>85</v>
@@ -10418,16 +10454,16 @@
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>373</v>
+        <v>158</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>74</v>
@@ -10435,21 +10471,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10461,18 +10497,18 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10520,28 +10556,28 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>394</v>
+        <v>163</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>398</v>
+        <v>158</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>74</v>
@@ -10549,42 +10585,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10632,25 +10672,25 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10661,10 +10701,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10687,19 +10727,17 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10724,13 +10762,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -10748,7 +10786,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10763,15 +10801,469 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="P82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/r4-core-70-restored/StructureDefinition-at-core-practitioner.xlsx
+++ b/r4-core-70-restored/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:47:46+00:00</t>
+    <t>2024-02-17T15:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
